--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3124.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3124.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.403499348056897</v>
+        <v>1.584742307662964</v>
       </c>
       <c r="B1">
-        <v>1.953262916590752</v>
+        <v>1.934595704078674</v>
       </c>
       <c r="C1">
-        <v>3.466308593044447</v>
+        <v>2.090032339096069</v>
       </c>
       <c r="D1">
-        <v>4.965755302883143</v>
+        <v>2.412392616271973</v>
       </c>
       <c r="E1">
-        <v>0.9477822975141369</v>
+        <v>3.217165470123291</v>
       </c>
     </row>
   </sheetData>
